--- a/ayuda/recursos_web_php/Inventario_Productos.xlsx
+++ b/ayuda/recursos_web_php/Inventario_Productos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema-pos\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\InventoryApp\ayuda\recursos_web_php\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3BD72-4964-4043-A673-3A407DADD0D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B84A18-570D-4D33-AE66-4BBBA6AE8F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C8D0EC74-BCDF-4908-909D-75F5D97CA04B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8D0EC74-BCDF-4908-909D-75F5D97CA04B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Productos" sheetId="1" r:id="rId1"/>
+    <sheet name="Categorias" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Productos!$A$1:$K$97</definedName>
     <definedName name="categorias">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4265,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D1EE0C-C425-4244-8D49-73DCB1BC7486}">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,9 +4284,10 @@
     <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -4320,8 +4321,9 @@
       <c r="K1" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>7755139002809</v>
       </c>
@@ -4352,14 +4354,15 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:K21" ca="1" si="1">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>7755139002810</v>
       </c>
@@ -4390,14 +4393,15 @@
       </c>
       <c r="J3" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7755139002811</v>
       </c>
@@ -4428,14 +4432,15 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>7755139002812</v>
       </c>
@@ -4466,14 +4471,15 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>7755139002813</v>
       </c>
@@ -4504,14 +4510,15 @@
       </c>
       <c r="J6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>7755139002814</v>
       </c>
@@ -4542,14 +4549,15 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7755139002815</v>
       </c>
@@ -4580,14 +4588,15 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7755139002816</v>
       </c>
@@ -4618,14 +4627,15 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7755139002817</v>
       </c>
@@ -4656,14 +4666,15 @@
       </c>
       <c r="J10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7755139002818</v>
       </c>
@@ -4694,14 +4705,15 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7755139002819</v>
       </c>
@@ -4732,14 +4744,15 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7755139002820</v>
       </c>
@@ -4770,14 +4783,15 @@
       </c>
       <c r="J13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7755139002821</v>
       </c>
@@ -4808,14 +4822,15 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>7755139002822</v>
       </c>
@@ -4846,14 +4861,15 @@
       </c>
       <c r="J15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7755139002823</v>
       </c>
@@ -4884,14 +4900,15 @@
       </c>
       <c r="J16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>7755139002824</v>
       </c>
@@ -4922,14 +4939,15 @@
       </c>
       <c r="J17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>7755139002825</v>
       </c>
@@ -4960,14 +4978,15 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>7755139002826</v>
       </c>
@@ -4998,14 +5017,15 @@
       </c>
       <c r="J19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>7755139002827</v>
       </c>
@@ -5036,14 +5056,15 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>7755139002828</v>
       </c>
@@ -5074,14 +5095,15 @@
       </c>
       <c r="J21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>7755139002829</v>
       </c>
@@ -5112,14 +5134,15 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" ref="J22:K41" ca="1" si="2">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>7755139002830</v>
       </c>
@@ -5150,14 +5173,15 @@
       </c>
       <c r="J23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>7755139002831</v>
       </c>
@@ -5188,14 +5212,15 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>7755139002832</v>
       </c>
@@ -5226,14 +5251,15 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>7755139002833</v>
       </c>
@@ -5264,14 +5290,15 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>7755139002834</v>
       </c>
@@ -5302,14 +5329,15 @@
       </c>
       <c r="J27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7755139002835</v>
       </c>
@@ -5340,14 +5368,15 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>7755139002836</v>
       </c>
@@ -5378,14 +5407,15 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>7755139002837</v>
       </c>
@@ -5416,14 +5446,15 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>7755139002838</v>
       </c>
@@ -5454,14 +5485,15 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>7755139002839</v>
       </c>
@@ -5492,14 +5524,15 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>7755139002840</v>
       </c>
@@ -5530,14 +5563,15 @@
       </c>
       <c r="J33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>7755139002841</v>
       </c>
@@ -5568,14 +5602,15 @@
       </c>
       <c r="J34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>7755139002842</v>
       </c>
@@ -5606,14 +5641,15 @@
       </c>
       <c r="J35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>7755139002843</v>
       </c>
@@ -5644,14 +5680,15 @@
       </c>
       <c r="J36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>7755139002844</v>
       </c>
@@ -5682,14 +5719,15 @@
       </c>
       <c r="J37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>7755139002845</v>
       </c>
@@ -5720,14 +5758,15 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>7755139002846</v>
       </c>
@@ -5758,14 +5797,15 @@
       </c>
       <c r="J39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>7755139002847</v>
       </c>
@@ -5796,14 +5836,15 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>7755139002848</v>
       </c>
@@ -5834,14 +5875,15 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>7755139002849</v>
       </c>
@@ -5872,14 +5914,15 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42:K61" ca="1" si="4">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>7755139002850</v>
       </c>
@@ -5910,14 +5953,15 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>7755139002851</v>
       </c>
@@ -5948,14 +5992,15 @@
       </c>
       <c r="J44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>7755139002852</v>
       </c>
@@ -5986,14 +6031,15 @@
       </c>
       <c r="J45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>7755139002853</v>
       </c>
@@ -6024,14 +6070,15 @@
       </c>
       <c r="J46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>7755139002854</v>
       </c>
@@ -6062,14 +6109,15 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>7755139002855</v>
       </c>
@@ -6100,14 +6148,15 @@
       </c>
       <c r="J48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>7755139002856</v>
       </c>
@@ -6138,14 +6187,15 @@
       </c>
       <c r="J49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>7755139002857</v>
       </c>
@@ -6176,14 +6226,15 @@
       </c>
       <c r="J50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>7755139002858</v>
       </c>
@@ -6214,14 +6265,15 @@
       </c>
       <c r="J51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>7755139002859</v>
       </c>
@@ -6252,14 +6304,15 @@
       </c>
       <c r="J52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>7755139002860</v>
       </c>
@@ -6290,14 +6343,15 @@
       </c>
       <c r="J53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>7755139002861</v>
       </c>
@@ -6328,14 +6382,15 @@
       </c>
       <c r="J54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>7755139002862</v>
       </c>
@@ -6366,14 +6421,15 @@
       </c>
       <c r="J55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>7755139002863</v>
       </c>
@@ -6404,14 +6460,15 @@
       </c>
       <c r="J56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>7755139002864</v>
       </c>
@@ -6442,14 +6499,15 @@
       </c>
       <c r="J57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>7755139002865</v>
       </c>
@@ -6480,14 +6538,15 @@
       </c>
       <c r="J58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>7755139002866</v>
       </c>
@@ -6518,14 +6577,15 @@
       </c>
       <c r="J59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>7755139002867</v>
       </c>
@@ -6556,14 +6616,15 @@
       </c>
       <c r="J60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>7755139002868</v>
       </c>
@@ -6594,14 +6655,15 @@
       </c>
       <c r="J61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>7755139002869</v>
       </c>
@@ -6632,14 +6694,15 @@
       </c>
       <c r="J62" s="10">
         <f t="shared" ref="J62:K81" ca="1" si="5">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K62" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>7755139002870</v>
       </c>
@@ -6670,14 +6733,15 @@
       </c>
       <c r="J63" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K63" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>7755139002871</v>
       </c>
@@ -6708,14 +6772,15 @@
       </c>
       <c r="J64" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>7755139002872</v>
       </c>
@@ -6746,14 +6811,15 @@
       </c>
       <c r="J65" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K65" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>7755139002873</v>
       </c>
@@ -6784,14 +6850,15 @@
       </c>
       <c r="J66" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K66" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>7755139002874</v>
       </c>
@@ -6822,14 +6889,15 @@
       </c>
       <c r="J67" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K67" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>7755139002875</v>
       </c>
@@ -6860,14 +6928,15 @@
       </c>
       <c r="J68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>7755139002876</v>
       </c>
@@ -6898,14 +6967,15 @@
       </c>
       <c r="J69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>7755139002877</v>
       </c>
@@ -6936,14 +7006,15 @@
       </c>
       <c r="J70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>7755139002878</v>
       </c>
@@ -6974,14 +7045,15 @@
       </c>
       <c r="J71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>7755139002879</v>
       </c>
@@ -7012,14 +7084,15 @@
       </c>
       <c r="J72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>7755139002880</v>
       </c>
@@ -7050,14 +7123,15 @@
       </c>
       <c r="J73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>7755139002881</v>
       </c>
@@ -7088,14 +7162,15 @@
       </c>
       <c r="J74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>7755139002882</v>
       </c>
@@ -7126,14 +7201,15 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M75" s="7"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>7755139002883</v>
       </c>
@@ -7164,14 +7240,15 @@
       </c>
       <c r="J76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>7755139002884</v>
       </c>
@@ -7202,14 +7279,15 @@
       </c>
       <c r="J77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>7755139002885</v>
       </c>
@@ -7240,14 +7318,15 @@
       </c>
       <c r="J78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>7755139002886</v>
       </c>
@@ -7278,14 +7357,15 @@
       </c>
       <c r="J79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>7755139002887</v>
       </c>
@@ -7316,14 +7396,15 @@
       </c>
       <c r="J80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>7755139002888</v>
       </c>
@@ -7354,14 +7435,15 @@
       </c>
       <c r="J81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M81" s="7"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>7755139002889</v>
       </c>
@@ -7392,14 +7474,15 @@
       </c>
       <c r="J82" s="10">
         <f t="shared" ref="J82:K97" ca="1" si="7">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K82" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M82" s="7"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>7755139002890</v>
       </c>
@@ -7430,14 +7513,15 @@
       </c>
       <c r="J83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>7755139002891</v>
       </c>
@@ -7468,14 +7552,15 @@
       </c>
       <c r="J84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M84" s="7"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>7755139002892</v>
       </c>
@@ -7506,14 +7591,15 @@
       </c>
       <c r="J85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>7755139002893</v>
       </c>
@@ -7544,14 +7630,15 @@
       </c>
       <c r="J86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>7755139002894</v>
       </c>
@@ -7582,14 +7669,15 @@
       </c>
       <c r="J87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M87" s="7"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>7755139002895</v>
       </c>
@@ -7620,14 +7708,15 @@
       </c>
       <c r="J88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>7755139002896</v>
       </c>
@@ -7658,14 +7747,15 @@
       </c>
       <c r="J89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>7755139002897</v>
       </c>
@@ -7696,14 +7786,15 @@
       </c>
       <c r="J90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>7755139002898</v>
       </c>
@@ -7734,14 +7825,15 @@
       </c>
       <c r="J91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M91" s="7"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>7755139002899</v>
       </c>
@@ -7772,14 +7864,15 @@
       </c>
       <c r="J92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M92" s="7"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>7755139002900</v>
       </c>
@@ -7810,14 +7903,15 @@
       </c>
       <c r="J93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M93" s="7"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>7755139002901</v>
       </c>
@@ -7848,14 +7942,15 @@
       </c>
       <c r="J94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M94" s="7"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>7755139002902</v>
       </c>
@@ -7886,14 +7981,15 @@
       </c>
       <c r="J95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M95" s="7"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>7755139002903</v>
       </c>
@@ -7924,14 +8020,15 @@
       </c>
       <c r="J96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M96" s="7"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>7755139002904</v>
       </c>
@@ -7962,14 +8059,15 @@
       </c>
       <c r="J97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M97" s="7"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>7755139002905</v>
       </c>
@@ -8000,14 +8098,15 @@
       </c>
       <c r="J98" s="10">
         <f t="shared" ref="J98:K117" ca="1" si="8">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K98" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>7755139002906</v>
       </c>
@@ -8038,14 +8137,15 @@
       </c>
       <c r="J99" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K99" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>7755139002907</v>
       </c>
@@ -8076,14 +8176,15 @@
       </c>
       <c r="J100" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K100" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>7755139002908</v>
       </c>
@@ -8114,14 +8215,15 @@
       </c>
       <c r="J101" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K101" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>7755139002909</v>
       </c>
@@ -8152,14 +8254,15 @@
       </c>
       <c r="J102" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K102" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>7755139002910</v>
       </c>
@@ -8190,14 +8293,15 @@
       </c>
       <c r="J103" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K103" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M103" s="7"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>7755139002911</v>
       </c>
@@ -8228,14 +8332,15 @@
       </c>
       <c r="J104" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K104" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M104" s="7"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>7755139002912</v>
       </c>
@@ -8266,14 +8371,15 @@
       </c>
       <c r="J105" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K105" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M105" s="7"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>7755139002913</v>
       </c>
@@ -8304,14 +8410,15 @@
       </c>
       <c r="J106" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K106" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M106" s="7"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>7755139002914</v>
       </c>
@@ -8342,14 +8449,15 @@
       </c>
       <c r="J107" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K107" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M107" s="7"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>7755139002915</v>
       </c>
@@ -8380,14 +8488,15 @@
       </c>
       <c r="J108" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K108" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M108" s="7"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>7755139002916</v>
       </c>
@@ -8418,14 +8527,15 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K109" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>7755139002917</v>
       </c>
@@ -8456,14 +8566,15 @@
       </c>
       <c r="J110" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K110" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>7755139002918</v>
       </c>
@@ -8494,14 +8605,15 @@
       </c>
       <c r="J111" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K111" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>7755139002919</v>
       </c>
@@ -8532,14 +8644,15 @@
       </c>
       <c r="J112" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K112" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>7755139002920</v>
       </c>
@@ -8570,14 +8683,15 @@
       </c>
       <c r="J113" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K113" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M113" s="7"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>7755139002921</v>
       </c>
@@ -8608,14 +8722,15 @@
       </c>
       <c r="J114" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K114" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M114" s="7"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>7755139002922</v>
       </c>
@@ -8646,14 +8761,15 @@
       </c>
       <c r="J115" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K115" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>7755139002923</v>
       </c>
@@ -8684,14 +8800,15 @@
       </c>
       <c r="J116" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K116" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M116" s="7"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>7755139002924</v>
       </c>
@@ -8722,14 +8839,15 @@
       </c>
       <c r="J117" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K117" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M117" s="7"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>7755139002925</v>
       </c>
@@ -8760,14 +8878,15 @@
       </c>
       <c r="J118" s="10">
         <f t="shared" ref="J118:K137" ca="1" si="9">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K118" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M118" s="7"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>7755139002926</v>
       </c>
@@ -8798,14 +8917,15 @@
       </c>
       <c r="J119" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K119" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M119" s="7"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>7755139002927</v>
       </c>
@@ -8836,14 +8956,15 @@
       </c>
       <c r="J120" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K120" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M120" s="7"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>7755139002928</v>
       </c>
@@ -8874,14 +8995,15 @@
       </c>
       <c r="J121" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K121" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M121" s="7"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>7755139002929</v>
       </c>
@@ -8912,14 +9034,15 @@
       </c>
       <c r="J122" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K122" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M122" s="7"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>7755139002930</v>
       </c>
@@ -8950,14 +9073,15 @@
       </c>
       <c r="J123" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K123" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M123" s="7"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>7755139002931</v>
       </c>
@@ -8988,14 +9112,15 @@
       </c>
       <c r="J124" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K124" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M124" s="7"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>7755139002932</v>
       </c>
@@ -9026,14 +9151,15 @@
       </c>
       <c r="J125" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K125" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M125" s="7"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>7755139002933</v>
       </c>
@@ -9064,14 +9190,15 @@
       </c>
       <c r="J126" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K126" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M126" s="7"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>7755139002934</v>
       </c>
@@ -9102,14 +9229,15 @@
       </c>
       <c r="J127" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K127" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M127" s="7"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>7755139002935</v>
       </c>
@@ -9140,14 +9268,15 @@
       </c>
       <c r="J128" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K128" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M128" s="7"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>7755139002936</v>
       </c>
@@ -9178,14 +9307,15 @@
       </c>
       <c r="J129" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K129" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M129" s="7"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>7755139002937</v>
       </c>
@@ -9216,14 +9346,15 @@
       </c>
       <c r="J130" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K130" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>7755139002938</v>
       </c>
@@ -9254,14 +9385,15 @@
       </c>
       <c r="J131" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K131" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M131" s="7"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>7755139002939</v>
       </c>
@@ -9292,14 +9424,15 @@
       </c>
       <c r="J132" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K132" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M132" s="7"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>7755139002940</v>
       </c>
@@ -9330,14 +9463,15 @@
       </c>
       <c r="J133" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K133" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M133" s="7"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>7755139002941</v>
       </c>
@@ -9368,14 +9502,15 @@
       </c>
       <c r="J134" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K134" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M134" s="7"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>7755139002942</v>
       </c>
@@ -9406,14 +9541,15 @@
       </c>
       <c r="J135" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K135" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M135" s="7"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>7755139002943</v>
       </c>
@@ -9444,14 +9580,15 @@
       </c>
       <c r="J136" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K136" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M136" s="7"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>7755139002944</v>
       </c>
@@ -9482,14 +9619,15 @@
       </c>
       <c r="J137" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K137" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M137" s="7"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>7755139002945</v>
       </c>
@@ -9520,14 +9658,15 @@
       </c>
       <c r="J138" s="10">
         <f t="shared" ref="J138:K157" ca="1" si="11">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K138" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M138" s="7"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>7755139002946</v>
       </c>
@@ -9558,14 +9697,15 @@
       </c>
       <c r="J139" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K139" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M139" s="7"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>7755139002947</v>
       </c>
@@ -9596,14 +9736,15 @@
       </c>
       <c r="J140" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K140" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M140" s="7"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>7755139002948</v>
       </c>
@@ -9634,14 +9775,15 @@
       </c>
       <c r="J141" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K141" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M141" s="7"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>7755139002949</v>
       </c>
@@ -9672,14 +9814,15 @@
       </c>
       <c r="J142" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K142" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M142" s="7"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>7755139002950</v>
       </c>
@@ -9710,14 +9853,15 @@
       </c>
       <c r="J143" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K143" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M143" s="7"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>7755139002951</v>
       </c>
@@ -9748,14 +9892,15 @@
       </c>
       <c r="J144" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K144" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M144" s="7"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>7755139002952</v>
       </c>
@@ -9786,14 +9931,15 @@
       </c>
       <c r="J145" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K145" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M145" s="7"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>7755139002953</v>
       </c>
@@ -9824,14 +9970,15 @@
       </c>
       <c r="J146" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K146" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M146" s="7"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>7755139002954</v>
       </c>
@@ -9862,14 +10009,15 @@
       </c>
       <c r="J147" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K147" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M147" s="7"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>7755139002955</v>
       </c>
@@ -9900,14 +10048,15 @@
       </c>
       <c r="J148" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K148" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M148" s="7"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>7755139002956</v>
       </c>
@@ -9938,14 +10087,15 @@
       </c>
       <c r="J149" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K149" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M149" s="7"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>7755139002957</v>
       </c>
@@ -9976,14 +10126,15 @@
       </c>
       <c r="J150" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K150" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M150" s="7"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>7755139002958</v>
       </c>
@@ -10014,14 +10165,15 @@
       </c>
       <c r="J151" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K151" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M151" s="7"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>7755139002959</v>
       </c>
@@ -10052,14 +10204,15 @@
       </c>
       <c r="J152" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K152" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M152" s="7"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>7755139002960</v>
       </c>
@@ -10090,14 +10243,15 @@
       </c>
       <c r="J153" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K153" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M153" s="7"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>7755139002961</v>
       </c>
@@ -10128,14 +10282,15 @@
       </c>
       <c r="J154" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K154" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M154" s="7"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>7755139002962</v>
       </c>
@@ -10166,14 +10321,15 @@
       </c>
       <c r="J155" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K155" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M155" s="7"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>7755139002963</v>
       </c>
@@ -10204,14 +10360,15 @@
       </c>
       <c r="J156" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K156" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M156" s="7"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>7755139002964</v>
       </c>
@@ -10242,14 +10399,15 @@
       </c>
       <c r="J157" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K157" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M157" s="7"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>7755139002965</v>
       </c>
@@ -10280,14 +10438,15 @@
       </c>
       <c r="J158" s="10">
         <f t="shared" ref="J158:K177" ca="1" si="12">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K158" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M158" s="7"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>7755139002966</v>
       </c>
@@ -10318,14 +10477,15 @@
       </c>
       <c r="J159" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K159" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M159" s="7"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>7755139002967</v>
       </c>
@@ -10356,14 +10516,15 @@
       </c>
       <c r="J160" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K160" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M160" s="7"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>7755139002968</v>
       </c>
@@ -10394,14 +10555,15 @@
       </c>
       <c r="J161" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K161" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M161" s="7"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>7755139002969</v>
       </c>
@@ -10432,14 +10594,15 @@
       </c>
       <c r="J162" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K162" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M162" s="7"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>7755139002970</v>
       </c>
@@ -10470,14 +10633,15 @@
       </c>
       <c r="J163" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K163" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M163" s="7"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>7755139002971</v>
       </c>
@@ -10508,14 +10672,15 @@
       </c>
       <c r="J164" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K164" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M164" s="7"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>7755139002972</v>
       </c>
@@ -10546,14 +10711,15 @@
       </c>
       <c r="J165" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K165" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M165" s="7"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>7755139002973</v>
       </c>
@@ -10584,14 +10750,15 @@
       </c>
       <c r="J166" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K166" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M166" s="7"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>7755139002974</v>
       </c>
@@ -10622,14 +10789,15 @@
       </c>
       <c r="J167" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K167" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M167" s="7"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>7755139002975</v>
       </c>
@@ -10660,14 +10828,15 @@
       </c>
       <c r="J168" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K168" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M168" s="7"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>7755139002976</v>
       </c>
@@ -10698,14 +10867,15 @@
       </c>
       <c r="J169" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K169" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M169" s="7"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>7755139002977</v>
       </c>
@@ -10736,14 +10906,15 @@
       </c>
       <c r="J170" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K170" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M170" s="7"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>7755139002978</v>
       </c>
@@ -10774,14 +10945,15 @@
       </c>
       <c r="J171" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K171" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M171" s="7"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>7755139002979</v>
       </c>
@@ -10812,14 +10984,15 @@
       </c>
       <c r="J172" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K172" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M172" s="7"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>7755139002980</v>
       </c>
@@ -10850,14 +11023,15 @@
       </c>
       <c r="J173" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K173" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M173" s="7"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>7755139002981</v>
       </c>
@@ -10888,14 +11062,15 @@
       </c>
       <c r="J174" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K174" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M174" s="7"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>7755139002982</v>
       </c>
@@ -10926,14 +11101,15 @@
       </c>
       <c r="J175" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K175" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M175" s="7"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>7755139002983</v>
       </c>
@@ -10964,14 +11140,15 @@
       </c>
       <c r="J176" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K176" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M176" s="7"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>7755139002984</v>
       </c>
@@ -11002,14 +11179,15 @@
       </c>
       <c r="J177" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K177" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M177" s="7"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>7755139002985</v>
       </c>
@@ -11040,14 +11218,15 @@
       </c>
       <c r="J178" s="10">
         <f t="shared" ref="J178:K193" ca="1" si="13">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K178" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M178" s="7"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>7755139002986</v>
       </c>
@@ -11078,14 +11257,15 @@
       </c>
       <c r="J179" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K179" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M179" s="7"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>7755139002987</v>
       </c>
@@ -11116,14 +11296,15 @@
       </c>
       <c r="J180" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K180" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M180" s="7"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>7755139002988</v>
       </c>
@@ -11154,14 +11335,15 @@
       </c>
       <c r="J181" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K181" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M181" s="7"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>7755139002989</v>
       </c>
@@ -11192,14 +11374,15 @@
       </c>
       <c r="J182" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K182" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M182" s="7"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>7755139002990</v>
       </c>
@@ -11230,14 +11413,15 @@
       </c>
       <c r="J183" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K183" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M183" s="7"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>7755139002991</v>
       </c>
@@ -11268,14 +11452,15 @@
       </c>
       <c r="J184" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K184" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M184" s="7"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>7755139002992</v>
       </c>
@@ -11306,14 +11491,15 @@
       </c>
       <c r="J185" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K185" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M185" s="7"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>7755139002993</v>
       </c>
@@ -11344,14 +11530,15 @@
       </c>
       <c r="J186" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K186" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M186" s="7"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>7755139002994</v>
       </c>
@@ -11382,14 +11569,15 @@
       </c>
       <c r="J187" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K187" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M187" s="7"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>7755139002995</v>
       </c>
@@ -11420,14 +11608,15 @@
       </c>
       <c r="J188" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K188" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M188" s="7"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>7755139002996</v>
       </c>
@@ -11458,14 +11647,15 @@
       </c>
       <c r="J189" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K189" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M189" s="7"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>7755139002997</v>
       </c>
@@ -11496,14 +11686,15 @@
       </c>
       <c r="J190" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K190" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M190" s="7"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>7755139002998</v>
       </c>
@@ -11534,14 +11725,15 @@
       </c>
       <c r="J191" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K191" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M191" s="7"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>7755139002999</v>
       </c>
@@ -11572,14 +11764,15 @@
       </c>
       <c r="J192" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K192" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M192" s="7"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>7755139003000</v>
       </c>
@@ -11610,14 +11803,15 @@
       </c>
       <c r="J193" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K193" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M193" s="7"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>7755139003001</v>
       </c>
@@ -11648,14 +11842,15 @@
       </c>
       <c r="J194" s="10">
         <f t="shared" ref="J194:K213" ca="1" si="15">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K194" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M194" s="7"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>7755139003002</v>
       </c>
@@ -11686,14 +11881,15 @@
       </c>
       <c r="J195" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K195" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M195" s="7"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>7755139003003</v>
       </c>
@@ -11724,14 +11920,15 @@
       </c>
       <c r="J196" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K196" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M196" s="7"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>7755139003004</v>
       </c>
@@ -11762,14 +11959,15 @@
       </c>
       <c r="J197" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K197" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M197" s="7"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>7755139003005</v>
       </c>
@@ -11800,14 +11998,15 @@
       </c>
       <c r="J198" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K198" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M198" s="7"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>7755139003006</v>
       </c>
@@ -11838,14 +12037,15 @@
       </c>
       <c r="J199" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K199" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M199" s="7"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>7755139003007</v>
       </c>
@@ -11876,14 +12076,15 @@
       </c>
       <c r="J200" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K200" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M200" s="7"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>7755139003008</v>
       </c>
@@ -11914,14 +12115,15 @@
       </c>
       <c r="J201" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K201" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M201" s="7"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>7755139003009</v>
       </c>
@@ -11952,14 +12154,15 @@
       </c>
       <c r="J202" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K202" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M202" s="7"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>7755139003010</v>
       </c>
@@ -11990,14 +12193,15 @@
       </c>
       <c r="J203" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K203" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M203" s="7"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>7755139003011</v>
       </c>
@@ -12028,14 +12232,15 @@
       </c>
       <c r="J204" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K204" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M204" s="7"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>7755139003012</v>
       </c>
@@ -12066,14 +12271,15 @@
       </c>
       <c r="J205" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K205" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M205" s="7"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>7755139003013</v>
       </c>
@@ -12104,14 +12310,15 @@
       </c>
       <c r="J206" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K206" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M206" s="7"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>7755139003014</v>
       </c>
@@ -12142,14 +12349,15 @@
       </c>
       <c r="J207" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K207" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M207" s="7"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>7755139003015</v>
       </c>
@@ -12180,14 +12388,15 @@
       </c>
       <c r="J208" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K208" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M208" s="7"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>7755139003016</v>
       </c>
@@ -12218,14 +12427,15 @@
       </c>
       <c r="J209" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K209" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M209" s="7"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>7755139003017</v>
       </c>
@@ -12256,14 +12466,15 @@
       </c>
       <c r="J210" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K210" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M210" s="7"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>7755139003018</v>
       </c>
@@ -12294,14 +12505,15 @@
       </c>
       <c r="J211" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K211" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M211" s="7"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>7755139003019</v>
       </c>
@@ -12332,14 +12544,15 @@
       </c>
       <c r="J212" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K212" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M212" s="7"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>7755139003020</v>
       </c>
@@ -12370,14 +12583,15 @@
       </c>
       <c r="J213" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K213" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M213" s="7"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>7755139003021</v>
       </c>
@@ -12408,14 +12622,15 @@
       </c>
       <c r="J214" s="10">
         <f t="shared" ref="J214:K233" ca="1" si="16">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K214" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M214" s="7"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>7755139003022</v>
       </c>
@@ -12446,14 +12661,15 @@
       </c>
       <c r="J215" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K215" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M215" s="7"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>7755139003023</v>
       </c>
@@ -12484,14 +12700,15 @@
       </c>
       <c r="J216" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K216" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M216" s="7"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>7755139003024</v>
       </c>
@@ -12522,14 +12739,15 @@
       </c>
       <c r="J217" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K217" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M217" s="7"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>7755139003025</v>
       </c>
@@ -12560,14 +12778,15 @@
       </c>
       <c r="J218" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K218" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M218" s="7"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>7755139003026</v>
       </c>
@@ -12598,14 +12817,15 @@
       </c>
       <c r="J219" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K219" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M219" s="7"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>7755139003027</v>
       </c>
@@ -12636,14 +12856,15 @@
       </c>
       <c r="J220" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K220" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M220" s="7"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>7755139003028</v>
       </c>
@@ -12674,14 +12895,15 @@
       </c>
       <c r="J221" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K221" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M221" s="7"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>7755139003029</v>
       </c>
@@ -12712,14 +12934,15 @@
       </c>
       <c r="J222" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K222" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M222" s="7"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>7755139003030</v>
       </c>
@@ -12750,14 +12973,15 @@
       </c>
       <c r="J223" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K223" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M223" s="7"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>7755139003031</v>
       </c>
@@ -12788,14 +13012,15 @@
       </c>
       <c r="J224" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K224" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M224" s="7"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>7755139003032</v>
       </c>
@@ -12826,14 +13051,15 @@
       </c>
       <c r="J225" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K225" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M225" s="7"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>7755139003033</v>
       </c>
@@ -12864,14 +13090,15 @@
       </c>
       <c r="J226" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K226" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M226" s="7"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>7755139003034</v>
       </c>
@@ -12902,14 +13129,15 @@
       </c>
       <c r="J227" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K227" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M227" s="7"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>7755139003035</v>
       </c>
@@ -12940,14 +13168,15 @@
       </c>
       <c r="J228" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K228" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M228" s="7"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>7755139003036</v>
       </c>
@@ -12978,14 +13207,15 @@
       </c>
       <c r="J229" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K229" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M229" s="7"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>7755139003037</v>
       </c>
@@ -13016,14 +13246,15 @@
       </c>
       <c r="J230" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K230" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M230" s="7"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>7755139003038</v>
       </c>
@@ -13054,14 +13285,15 @@
       </c>
       <c r="J231" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K231" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M231" s="7"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>7755139003039</v>
       </c>
@@ -13092,14 +13324,15 @@
       </c>
       <c r="J232" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K232" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M232" s="7"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>7755139003040</v>
       </c>
@@ -13130,14 +13363,15 @@
       </c>
       <c r="J233" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K233" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M233" s="7"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>7755139003041</v>
       </c>
@@ -13168,14 +13402,15 @@
       </c>
       <c r="J234" s="10">
         <f t="shared" ref="J234:K253" ca="1" si="17">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K234" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M234" s="7"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>7755139003042</v>
       </c>
@@ -13206,14 +13441,15 @@
       </c>
       <c r="J235" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K235" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M235" s="7"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>7755139003043</v>
       </c>
@@ -13244,14 +13480,15 @@
       </c>
       <c r="J236" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K236" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M236" s="7"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>7755139003044</v>
       </c>
@@ -13282,14 +13519,15 @@
       </c>
       <c r="J237" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K237" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M237" s="7"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>7755139003045</v>
       </c>
@@ -13320,14 +13558,15 @@
       </c>
       <c r="J238" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K238" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M238" s="7"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>7755139003046</v>
       </c>
@@ -13358,14 +13597,15 @@
       </c>
       <c r="J239" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K239" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M239" s="7"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>7755139003047</v>
       </c>
@@ -13396,14 +13636,15 @@
       </c>
       <c r="J240" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K240" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M240" s="7"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>7755139003048</v>
       </c>
@@ -13434,14 +13675,15 @@
       </c>
       <c r="J241" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K241" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M241" s="7"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>7755139003049</v>
       </c>
@@ -13472,14 +13714,15 @@
       </c>
       <c r="J242" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K242" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M242" s="7"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>7755139003050</v>
       </c>
@@ -13510,14 +13753,15 @@
       </c>
       <c r="J243" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K243" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M243" s="7"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>7755139003051</v>
       </c>
@@ -13548,14 +13792,15 @@
       </c>
       <c r="J244" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K244" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M244" s="7"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>7755139003052</v>
       </c>
@@ -13586,14 +13831,15 @@
       </c>
       <c r="J245" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K245" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M245" s="7"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>7755139003053</v>
       </c>
@@ -13624,14 +13870,15 @@
       </c>
       <c r="J246" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K246" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M246" s="7"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>7755139003054</v>
       </c>
@@ -13662,14 +13909,15 @@
       </c>
       <c r="J247" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K247" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M247" s="7"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>7755139003055</v>
       </c>
@@ -13700,14 +13948,15 @@
       </c>
       <c r="J248" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K248" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M248" s="7"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>7755139003056</v>
       </c>
@@ -13738,14 +13987,15 @@
       </c>
       <c r="J249" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K249" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M249" s="7"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>7755139003057</v>
       </c>
@@ -13776,14 +14026,15 @@
       </c>
       <c r="J250" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K250" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M250" s="7"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>7755139003058</v>
       </c>
@@ -13814,14 +14065,15 @@
       </c>
       <c r="J251" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K251" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M251" s="7"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>7755139003059</v>
       </c>
@@ -13852,14 +14104,15 @@
       </c>
       <c r="J252" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K252" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M252" s="7"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>7755139003060</v>
       </c>
@@ -13890,14 +14143,15 @@
       </c>
       <c r="J253" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K253" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M253" s="7"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>7755139003061</v>
       </c>
@@ -13928,14 +14182,15 @@
       </c>
       <c r="J254" s="10">
         <f t="shared" ref="J254:K273" ca="1" si="18">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K254" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M254" s="7"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>7755139003062</v>
       </c>
@@ -13966,14 +14221,15 @@
       </c>
       <c r="J255" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K255" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M255" s="7"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>7755139003063</v>
       </c>
@@ -14004,14 +14260,15 @@
       </c>
       <c r="J256" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K256" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M256" s="7"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>7755139003064</v>
       </c>
@@ -14042,14 +14299,15 @@
       </c>
       <c r="J257" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K257" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M257" s="7"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>7755139003065</v>
       </c>
@@ -14080,14 +14338,15 @@
       </c>
       <c r="J258" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K258" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M258" s="7"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>7755139003066</v>
       </c>
@@ -14118,14 +14377,15 @@
       </c>
       <c r="J259" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K259" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M259" s="7"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>7755139003067</v>
       </c>
@@ -14156,14 +14416,15 @@
       </c>
       <c r="J260" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K260" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M260" s="7"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>7755139003068</v>
       </c>
@@ -14194,14 +14455,15 @@
       </c>
       <c r="J261" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K261" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M261" s="7"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>7755139003069</v>
       </c>
@@ -14232,14 +14494,15 @@
       </c>
       <c r="J262" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K262" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M262" s="7"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>7755139003070</v>
       </c>
@@ -14270,14 +14533,15 @@
       </c>
       <c r="J263" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K263" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M263" s="7"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>7755139003071</v>
       </c>
@@ -14308,14 +14572,15 @@
       </c>
       <c r="J264" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K264" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M264" s="7"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>7755139003072</v>
       </c>
@@ -14346,14 +14611,15 @@
       </c>
       <c r="J265" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K265" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M265" s="7"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>7755139003073</v>
       </c>
@@ -14384,14 +14650,15 @@
       </c>
       <c r="J266" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K266" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M266" s="7"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>7755139003074</v>
       </c>
@@ -14422,14 +14689,15 @@
       </c>
       <c r="J267" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K267" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M267" s="7"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>7755139003075</v>
       </c>
@@ -14460,14 +14728,15 @@
       </c>
       <c r="J268" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K268" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M268" s="7"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>7755139003076</v>
       </c>
@@ -14498,14 +14767,15 @@
       </c>
       <c r="J269" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K269" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M269" s="7"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>7755139003077</v>
       </c>
@@ -14536,14 +14806,15 @@
       </c>
       <c r="J270" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K270" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M270" s="7"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>7755139003078</v>
       </c>
@@ -14574,14 +14845,15 @@
       </c>
       <c r="J271" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K271" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M271" s="7"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>7755139003079</v>
       </c>
@@ -14612,14 +14884,15 @@
       </c>
       <c r="J272" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K272" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M272" s="7"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>7755139003080</v>
       </c>
@@ -14650,14 +14923,15 @@
       </c>
       <c r="J273" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K273" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M273" s="7"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>7755139003081</v>
       </c>
@@ -14688,14 +14962,15 @@
       </c>
       <c r="J274" s="10">
         <f t="shared" ref="J274:K289" ca="1" si="20">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K274" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M274" s="7"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>7755139003082</v>
       </c>
@@ -14726,14 +15001,15 @@
       </c>
       <c r="J275" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K275" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M275" s="7"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>7755139003083</v>
       </c>
@@ -14764,14 +15040,15 @@
       </c>
       <c r="J276" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K276" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M276" s="7"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>7755139003084</v>
       </c>
@@ -14802,14 +15079,15 @@
       </c>
       <c r="J277" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K277" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M277" s="7"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>7755139003085</v>
       </c>
@@ -14840,14 +15118,15 @@
       </c>
       <c r="J278" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K278" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M278" s="7"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>7755139003086</v>
       </c>
@@ -14878,14 +15157,15 @@
       </c>
       <c r="J279" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K279" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M279" s="7"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>7755139003087</v>
       </c>
@@ -14916,14 +15196,15 @@
       </c>
       <c r="J280" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K280" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M280" s="7"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>7755139003088</v>
       </c>
@@ -14954,14 +15235,15 @@
       </c>
       <c r="J281" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K281" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M281" s="7"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>7755139003089</v>
       </c>
@@ -14992,14 +15274,15 @@
       </c>
       <c r="J282" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K282" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M282" s="7"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>7755139003090</v>
       </c>
@@ -15030,14 +15313,15 @@
       </c>
       <c r="J283" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K283" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M283" s="7"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>7755139003091</v>
       </c>
@@ -15068,14 +15352,15 @@
       </c>
       <c r="J284" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K284" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M284" s="7"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>7755139003092</v>
       </c>
@@ -15106,14 +15391,15 @@
       </c>
       <c r="J285" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K285" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M285" s="7"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>7755139003093</v>
       </c>
@@ -15144,14 +15430,15 @@
       </c>
       <c r="J286" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K286" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M286" s="7"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>7755139003094</v>
       </c>
@@ -15182,14 +15469,15 @@
       </c>
       <c r="J287" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K287" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M287" s="7"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>7755139003095</v>
       </c>
@@ -15220,14 +15508,15 @@
       </c>
       <c r="J288" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K288" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M288" s="7"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>7755139003096</v>
       </c>
@@ -15258,14 +15547,15 @@
       </c>
       <c r="J289" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K289" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M289" s="7"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <v>7755139003097</v>
       </c>
@@ -15296,14 +15586,15 @@
       </c>
       <c r="J290" s="10">
         <f t="shared" ref="J290:K301" ca="1" si="21">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K290" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M290" s="7"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>7755139003098</v>
       </c>
@@ -15334,14 +15625,15 @@
       </c>
       <c r="J291" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K291" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M291" s="7"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>7755139003099</v>
       </c>
@@ -15372,14 +15664,15 @@
       </c>
       <c r="J292" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K292" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M292" s="7"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>7755139003100</v>
       </c>
@@ -15410,14 +15703,15 @@
       </c>
       <c r="J293" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K293" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M293" s="7"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>7755139003101</v>
       </c>
@@ -15448,14 +15742,15 @@
       </c>
       <c r="J294" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K294" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M294" s="7"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>7755139003102</v>
       </c>
@@ -15486,14 +15781,15 @@
       </c>
       <c r="J295" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K295" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M295" s="7"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>7755139003103</v>
       </c>
@@ -15524,14 +15820,15 @@
       </c>
       <c r="J296" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K296" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M296" s="7"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>7755139003104</v>
       </c>
@@ -15562,14 +15859,15 @@
       </c>
       <c r="J297" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K297" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M297" s="7"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>7755139003105</v>
       </c>
@@ -15600,14 +15898,15 @@
       </c>
       <c r="J298" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K298" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M298" s="7"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>7755139003106</v>
       </c>
@@ -15638,14 +15937,15 @@
       </c>
       <c r="J299" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K299" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M299" s="7"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>7755139003107</v>
       </c>
@@ -15676,14 +15976,15 @@
       </c>
       <c r="J300" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K300" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44906</v>
+      </c>
+      <c r="M300" s="7"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>7755139003108</v>
       </c>
@@ -15714,12 +16015,13 @@
       </c>
       <c r="J301" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="K301" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44504</v>
-      </c>
+        <v>44906</v>
+      </c>
+      <c r="M301" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K97" xr:uid="{8DC05FDD-0040-457B-BBCA-909598BB8C91}">
@@ -15737,7 +16039,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15771,7 +16073,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D2" s="12">
         <v>44504</v>
@@ -15786,7 +16088,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C20" ca="1" si="0">TODAY()</f>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D3" s="12">
         <v>44504</v>
@@ -15801,7 +16103,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D4" s="12">
         <v>44504</v>
@@ -15816,7 +16118,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D5" s="12">
         <v>44504</v>
@@ -15831,7 +16133,7 @@
       </c>
       <c r="C6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D6" s="12">
         <v>44504</v>
@@ -15846,7 +16148,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D7" s="12">
         <v>44504</v>
@@ -15861,7 +16163,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D8" s="12">
         <v>44504</v>
@@ -15876,7 +16178,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D9" s="12">
         <v>44504</v>
@@ -15891,7 +16193,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D10" s="12">
         <v>44504</v>
@@ -15906,7 +16208,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D11" s="12">
         <v>44504</v>
@@ -15921,7 +16223,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D12" s="12">
         <v>44504</v>
@@ -15936,7 +16238,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D13" s="12">
         <v>44504</v>
@@ -15951,7 +16253,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D14" s="12">
         <v>44504</v>
@@ -15966,7 +16268,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D15" s="12">
         <v>44504</v>
@@ -15981,7 +16283,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D16" s="12">
         <v>44504</v>
@@ -15996,7 +16298,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D17" s="12">
         <v>44504</v>
@@ -16011,7 +16313,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D18" s="12">
         <v>44504</v>
@@ -16026,7 +16328,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D19" s="12">
         <v>44504</v>
@@ -16041,7 +16343,7 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44906</v>
       </c>
       <c r="D20" s="12">
         <v>44504</v>
